--- a/eclipse-workspace/test-files/Basic Orders.xlsx
+++ b/eclipse-workspace/test-files/Basic Orders.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>price</t>
   </si>
@@ -46,15 +46,27 @@
   </si>
   <si>
     <t>Pens</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>DDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +390,7 @@
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -394,8 +406,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -411,13 +426,16 @@
       <c r="E2">
         <v>4.3454560000000004</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>6.7565</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -428,13 +446,16 @@
       <c r="E3">
         <v>3.2322299999999999</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>4.3639999999999999</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -443,15 +464,18 @@
         <v>700</v>
       </c>
       <c r="E4">
-        <v>3.5666000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>5.42</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -460,7 +484,10 @@
         <v>700</v>
       </c>
       <c r="E5">
-        <v>4.55</v>
+        <v>65.123400000000004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
